--- a/data/4/20230615-a1r-nc-session4-j_transcript.xlsx
+++ b/data/4/20230615-a1r-nc-session4-j_transcript.xlsx
@@ -1,327 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marlibosler/Desktop/Session 4 NC/06:15/excel 06:15/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF21405A-881B-8640-9441-280D5BB7AFDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1 - 20230615-a1r-nc-sessi" sheetId="1" r:id="rId1"/>
-    <sheet name="proposal" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="in" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="89">
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>"2:06"</t>
-  </si>
-  <si>
-    <t>Hi. I'm Janine Schmidt. I'm a municipal clerk in western Nebraska.</t>
-  </si>
-  <si>
-    <t>"2:16"</t>
-  </si>
-  <si>
-    <t>Hi, Terri Hale Madison Alabama.</t>
-  </si>
-  <si>
-    <t>"2:22"</t>
-  </si>
-  <si>
-    <t>Christina's or Northern Virginia.</t>
-  </si>
-  <si>
-    <t>"2:26"</t>
-  </si>
-  <si>
-    <t>Hello Houston. Cincinnati, Ohio.</t>
-  </si>
-  <si>
-    <t>"2:31"</t>
-  </si>
-  <si>
-    <t>Try to cook Hanceville, Alabama.</t>
-  </si>
-  <si>
-    <t>"2:35"</t>
-  </si>
-  <si>
-    <t>Everyone James in California.</t>
-  </si>
-  <si>
-    <t>"13:15"</t>
-  </si>
-  <si>
-    <t>Okay, I'll jump in the thing that jumps out to me is options for and 5. Requiring, I can't think of the word now but</t>
-  </si>
-  <si>
-    <t>I wrote it down and I can't read my notes, I was trying to talk so fast but closing the loopholes especially I think there's too many opportunities for things to just fall through the cracks and things. We never know about as far as raising the limits. I don't know about you guys, but imagining giving 3,300 dollars to a candidate sounds like an awful lot of money. And I'm afraid that the more</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> they get this year, the more, the people who make money off of it are going to raise the money raising maps for</t>
-  </si>
-  <si>
-    <t>"14:02"</t>
-  </si>
-  <si>
-    <t>Sorry.</t>
-  </si>
-  <si>
-    <t>"14:08"</t>
-  </si>
-  <si>
-    <t>Hey Greg. I don't think they should be raising the limits. That's in my mind. Just going to be a disaster and make people had his. Don't agree with that. I think that everyone should have their own opinions without being persuaded by money.</t>
-  </si>
-  <si>
-    <t>"14:32"</t>
-  </si>
-  <si>
-    <t>I would agree as well. I don't think anybody should have to buy a vote and it seems like those with the money seem to get what they want.</t>
-  </si>
-  <si>
-    <t>"14:45"</t>
-  </si>
-  <si>
-    <t>Yes, I think they're already getting way too much money and not doing enough for the average citizen.</t>
-  </si>
-  <si>
-    <t>"14:58"</t>
-  </si>
-  <si>
-    <t>Well I think a lot of it goes back to the establishment of citizens united because it said that corporations are like individuals and they can give like individuals and they can give millions and millions of dollars. And I don't imagine there's anybody in this group that could match that</t>
-  </si>
-  <si>
-    <t>"17:50"</t>
-  </si>
-  <si>
-    <t>I feel that any corporate donors should they should be able, they should have to disclose what they do. They're they're giving their money to and everything. That's just seems like a special interest.</t>
-  </si>
-  <si>
-    <t>"18:11"</t>
-  </si>
-  <si>
-    <t>I absolutely agree. It's just too hard to know what's going on and there's too much influence going on out there and too much money being spent by entities like that they can afford to.</t>
-  </si>
-  <si>
-    <t>"18:37"</t>
-  </si>
-  <si>
-    <t>Sounds good. But I also agree. Full disclosure of what I hope.</t>
-  </si>
-  <si>
-    <t>"18:56"</t>
-  </si>
-  <si>
-    <t>I think the idea of the Democracy vouchers where it gives small donors, the opportunity to have their funds Majid matched. That could be interesting. I'd like to learn more about that because that would give Everyday People a chance to get their opinions out there and maybe get them before the</t>
-  </si>
-  <si>
-    <t>"19:18"</t>
-  </si>
-  <si>
-    <t>And they say that I was really small amount.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> like,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Look up to and I guess examples, like up to up to a hundred dollars. So I'm just thinking if they do that, how much of a difference is that really going?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> They're allowing thousands.</t>
-  </si>
-  <si>
-    <t>"19:44"</t>
-  </si>
-  <si>
-    <t>I think the idea if I read that correctly, the idea behind that is if you had a Groundswell of enough people with the same concerns, that then they can make their voices, heard, instead of it being like, people getting lost in the shuffle and they can't get a unified front, maybe that would help that bubble up to the top.</t>
-  </si>
-  <si>
-    <t>"20:08"</t>
-  </si>
-  <si>
-    <t>I agree. I think that does sound like an interesting idea, just curious where that where those funds are being reallocated from.</t>
-  </si>
-  <si>
-    <t>"20:19"</t>
-  </si>
-  <si>
-    <t>Yeah, I was just I agree with you James. I was just going to think I was just thinking the same, you know. Where is that money coming from?</t>
-  </si>
-  <si>
-    <t>"20:31"</t>
-  </si>
-  <si>
-    <t>I think that's an excellent question for one of the questions at the end of the exercise.</t>
-  </si>
-  <si>
-    <t>"21:54"</t>
-  </si>
-  <si>
-    <t>My biggest thing is, that's fine and dandy, but who's regulating them?</t>
-  </si>
-  <si>
-    <t>"22:05"</t>
-  </si>
-  <si>
-    <t>yeah, I agree needs to definitely have an oversight but from a state that's completely gerrymandered I would love to see someone come in and redraw the lines</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Who doesn't have a, you know, money coming from.</t>
-  </si>
-  <si>
-    <t>"24:25"</t>
-  </si>
-  <si>
-    <t>I really don't like the idea of making people vote, because I feel like some people specifically choose not to vote, and that's their choice and they should be allowed to not go.</t>
-  </si>
-  <si>
-    <t>"24:38"</t>
-  </si>
-  <si>
-    <t>I agree with that. I love the idea of making it a national holiday. It shouldn't be so difficult to, to be able to get out and vote. And I sincerely like the idea of allowing 16 year olds to vote in their Local School elections. I think it may train them to pay attention to the issues and feel like they can make a difference in, maybe train them to vote.</t>
-  </si>
-  <si>
-    <t>"25:04"</t>
-  </si>
-  <si>
-    <t>Yeah, I like the idea of a national holiday. I do kind of like the idea of the compulsory voting with the option that, you know, when you go to cast your ballot, you can choose. Basically, at that time say, you don't vote for a candidate but it gets you out there and basically forces you to make a decision. Of course, there'd have to be some way to allow folks that can't make it or had well, they're all of the obligations or health issues too.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Do that.</t>
-  </si>
-  <si>
-    <t>"25:37"</t>
-  </si>
-  <si>
-    <t>Yeah, I kind of agree that I do like having everyone vote, just because I have some friends. I know that in Brazil, they do that. And it it makes them feel very patriotic towards their country like because they are required to but they are then it's going to make a difference because the country is doing everyone as an equal that their vote matters and I know people that travel all over so they can get to the embassies to vote and</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> And I think it is nice to respect the country, you live in and to want your voice to be heard.</t>
-  </si>
-  <si>
-    <t>"26:20"</t>
-  </si>
-  <si>
-    <t>You know, they could influence people to actually pay attention to what's going on. Instead of just picking a team and constantly voting for that team, but to actually pay attention to the details of what they're voting for.</t>
-  </si>
-  <si>
-    <t>"26:37"</t>
-  </si>
-  <si>
-    <t>I also think it should definitely be a national holiday because everyone brought up a good point if you're working and you have really long job hours and you can't make it in. How can you be expected to vote? People aren't going to lose their paycheck so that they can go vote. So it should be a paid holiday.</t>
-  </si>
-  <si>
-    <t>"32:45"</t>
-  </si>
-  <si>
-    <t>I think this is a good question. It's simple and absolutely to the point</t>
-  </si>
-  <si>
-    <t>"32:53"</t>
-  </si>
-  <si>
-    <t>Yeah, I would agree. I'm kinda curious how it has worked out in other countries because like what you guys are saying if making it compulsory made, people pay more attention than I would be all for it. I was kind of against it because I think people don't pinch engine and then they're just kind of blindly loading and then I don't like it.</t>
-  </si>
-  <si>
-    <t>"33:15"</t>
-  </si>
-  <si>
-    <t>It makes perfect sense. Alana</t>
-  </si>
-  <si>
-    <t>speaker</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>proposal</t>
-  </si>
-  <si>
-    <t>Implement RCV as an alternative method both to elected officials and representatives at all levels</t>
-  </si>
-  <si>
-    <t>Change the primary system</t>
-  </si>
-  <si>
-    <t>Use proportional representatives to elect elected officials</t>
-  </si>
-  <si>
-    <t>Change the current electoral college</t>
-  </si>
-  <si>
-    <t>Implement more accessibility to voting</t>
-  </si>
-  <si>
-    <t>Restore federal and state voting rights to citizens with felony convictions upon their release from prison</t>
-  </si>
-  <si>
-    <t>Implement voting standards that are less strict</t>
-  </si>
-  <si>
-    <t>Implement more measures to address voter fraud</t>
-  </si>
-  <si>
-    <t>Implement more fairness and transparency in the election process</t>
-  </si>
-  <si>
-    <t>Implement limits on financing individual candidates and parties</t>
-  </si>
-  <si>
-    <t>Increase in public funding and financing for campaigns</t>
-  </si>
-  <si>
-    <t>Implement a term limit for Supreme Court Justices</t>
-  </si>
-  <si>
-    <t>Increase opportunities for learning about civic education in schools</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
+      <name val="Helvetica Neue"/>
+      <color indexed="8"/>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -397,47 +119,47 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -506,14 +228,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1588,646 +1302,751 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IS50"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7" style="1" customWidth="1"/>
-    <col min="3" max="3" width="166.6640625" style="1" customWidth="1"/>
-    <col min="4" max="253" width="8.33203125" style="1" customWidth="1"/>
+    <col width="6.1640625" customWidth="1" style="1" min="1" max="1"/>
+    <col width="7" customWidth="1" style="1" min="2" max="2"/>
+    <col width="166.6640625" customWidth="1" style="1" min="3" max="3"/>
+    <col width="8.33203125" customWidth="1" style="1" min="4" max="253"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
+    <row r="1" ht="20.25" customHeight="1" s="10">
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>speaker</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="20" customHeight="1" s="10">
+      <c r="A2" s="3" t="n">
         <v>48705</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>"2:06"</t>
+        </is>
+      </c>
+      <c r="C2" s="5" t="n"/>
+    </row>
+    <row r="3" ht="20" customHeight="1" s="10">
+      <c r="A3" s="3" t="n">
         <v>48705</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>"2:06"</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>Hi. I'm Janine Schmidt. I'm a municipal clerk in western Nebraska.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="20" customHeight="1" s="10">
+      <c r="A4" s="3" t="n">
         <v>48700</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>"2:16"</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Hi, Terri Hale Madison Alabama.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="20" customHeight="1" s="10">
+      <c r="A5" s="3" t="n">
         <v>48700</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>"2:16"</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n"/>
+    </row>
+    <row r="6" ht="20" customHeight="1" s="10">
+      <c r="A6" s="3" t="n">
         <v>48704</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>"2:22"</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n"/>
+    </row>
+    <row r="7" ht="20" customHeight="1" s="10">
+      <c r="A7" s="3" t="n">
         <v>48704</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>"2:22"</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>Christina's or Northern Virginia.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="20" customHeight="1" s="10">
+      <c r="A8" s="3" t="n">
         <v>48707</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>"2:26"</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>Hello Houston. Cincinnati, Ohio.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="20" customHeight="1" s="10">
+      <c r="A9" s="3" t="n">
         <v>9870</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>"2:31"</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>Try to cook Hanceville, Alabama.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="20" customHeight="1" s="10">
+      <c r="A10" s="3" t="n">
         <v>10150</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>"2:35"</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n"/>
+    </row>
+    <row r="11" ht="20" customHeight="1" s="10">
+      <c r="A11" s="3" t="n">
         <v>10150</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>"2:35"</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t>Everyone James in California.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="20" customHeight="1" s="10">
+      <c r="A12" s="3" t="n">
         <v>48700</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>"13:15"</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>Okay, I'll jump in the thing that jumps out to me is options for and 5. Requiring, I can't think of the word now but</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="20" customHeight="1" s="10">
+      <c r="A13" s="3" t="n">
         <v>48700</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>"13:15"</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>I wrote it down and I can't read my notes, I was trying to talk so fast but closing the loopholes especially I think there's too many opportunities for things to just fall through the cracks and things. We never know about as far as raising the limits. I don't know about you guys, but imagining giving 3,300 dollars to a candidate sounds like an awful lot of money. And I'm afraid that the more</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="20" customHeight="1" s="10">
+      <c r="A14" s="3" t="n">
         <v>48700</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>"13:15"</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> they get this year, the more, the people who make money off of it are going to raise the money raising maps for</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="20" customHeight="1" s="10">
+      <c r="A15" s="3" t="n">
         <v>48700</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>"14:02"</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>Sorry.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="20" customHeight="1" s="10">
+      <c r="A16" s="3" t="n">
         <v>48704</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>"14:08"</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>Hey Greg. I don't think they should be raising the limits. That's in my mind. Just going to be a disaster and make people had his. Don't agree with that. I think that everyone should have their own opinions without being persuaded by money.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="20" customHeight="1" s="10">
+      <c r="A17" s="3" t="n">
         <v>48705</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>"14:32"</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t>I would agree as well. I don't think anybody should have to buy a vote and it seems like those with the money seem to get what they want.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="20" customHeight="1" s="10">
+      <c r="A18" s="3" t="n">
         <v>9870</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>"14:45"</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t>Yes, I think they're already getting way too much money and not doing enough for the average citizen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="20" customHeight="1" s="10">
+      <c r="A19" s="3" t="n">
         <v>48700</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>"14:58"</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="inlineStr">
+        <is>
+          <t>Well I think a lot of it goes back to the establishment of citizens united because it said that corporations are like individuals and they can give like individuals and they can give millions and millions of dollars. And I don't imagine there's anybody in this group that could match that</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="20" customHeight="1" s="10">
+      <c r="A20" s="3" t="n">
         <v>48707</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="5"/>
-    </row>
-    <row r="21" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>"17:50"</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n"/>
+    </row>
+    <row r="21" ht="20" customHeight="1" s="10">
+      <c r="A21" s="3" t="n">
         <v>48707</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>"17:50"</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>I feel that any corporate donors should they should be able, they should have to disclose what they do. They're they're giving their money to and everything. That's just seems like a special interest.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="20" customHeight="1" s="10">
+      <c r="A22" s="3" t="n">
         <v>48700</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>"18:11"</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>I absolutely agree. It's just too hard to know what's going on and there's too much influence going on out there and too much money being spent by entities like that they can afford to.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="20" customHeight="1" s="10">
+      <c r="A23" s="3" t="n">
         <v>48704</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>"18:37"</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t>Sounds good. But I also agree. Full disclosure of what I hope.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="20" customHeight="1" s="10">
+      <c r="A24" s="3" t="n">
         <v>48700</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>"18:56"</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t>I think the idea of the Democracy vouchers where it gives small donors, the opportunity to have their funds Majid matched. That could be interesting. I'd like to learn more about that because that would give Everyday People a chance to get their opinions out there and maybe get them before the</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="20" customHeight="1" s="10">
+      <c r="A25" s="3" t="n">
         <v>48704</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>"19:18"</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="inlineStr">
+        <is>
+          <t>And they say that I was really small amount.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="20" customHeight="1" s="10">
+      <c r="A26" s="3" t="n">
         <v>48704</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t>"19:18"</t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> like,</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="20" customHeight="1" s="10">
+      <c r="A27" s="3" t="n">
         <v>48704</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="5"/>
-    </row>
-    <row r="28" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>"19:18"</t>
+        </is>
+      </c>
+      <c r="C27" s="5" t="n"/>
+    </row>
+    <row r="28" ht="20" customHeight="1" s="10">
+      <c r="A28" s="3" t="n">
         <v>48704</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
+      <c r="B28" s="4" t="inlineStr">
+        <is>
+          <t>"19:18"</t>
+        </is>
+      </c>
+      <c r="C28" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Look up to and I guess examples, like up to up to a hundred dollars. So I'm just thinking if they do that, how much of a difference is that really going?</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="20" customHeight="1" s="10">
+      <c r="A29" s="3" t="n">
         <v>48704</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="3">
+      <c r="B29" s="4" t="inlineStr">
+        <is>
+          <t>"19:18"</t>
+        </is>
+      </c>
+      <c r="C29" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> They're allowing thousands.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="20" customHeight="1" s="10">
+      <c r="A30" s="3" t="n">
         <v>48700</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="3">
+      <c r="B30" s="4" t="inlineStr">
+        <is>
+          <t>"19:44"</t>
+        </is>
+      </c>
+      <c r="C30" s="4" t="inlineStr">
+        <is>
+          <t>I think the idea if I read that correctly, the idea behind that is if you had a Groundswell of enough people with the same concerns, that then they can make their voices, heard, instead of it being like, people getting lost in the shuffle and they can't get a unified front, maybe that would help that bubble up to the top.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="20" customHeight="1" s="10">
+      <c r="A31" s="3" t="n">
         <v>10150</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="3">
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>"20:08"</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="inlineStr">
+        <is>
+          <t>I agree. I think that does sound like an interesting idea, just curious where that where those funds are being reallocated from.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="20" customHeight="1" s="10">
+      <c r="A32" s="3" t="n">
         <v>48707</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="3">
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t>"20:19"</t>
+        </is>
+      </c>
+      <c r="C32" s="4" t="inlineStr">
+        <is>
+          <t>Yeah, I was just I agree with you James. I was just going to think I was just thinking the same, you know. Where is that money coming from?</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="20" customHeight="1" s="10">
+      <c r="A33" s="3" t="n">
         <v>48700</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="3">
+      <c r="B33" s="4" t="inlineStr">
+        <is>
+          <t>"20:31"</t>
+        </is>
+      </c>
+      <c r="C33" s="4" t="inlineStr">
+        <is>
+          <t>I think that's an excellent question for one of the questions at the end of the exercise.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="20" customHeight="1" s="10">
+      <c r="A34" s="3" t="n">
         <v>48707</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="3">
+      <c r="B34" s="4" t="inlineStr">
+        <is>
+          <t>"21:54"</t>
+        </is>
+      </c>
+      <c r="C34" s="4" t="inlineStr">
+        <is>
+          <t>My biggest thing is, that's fine and dandy, but who's regulating them?</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="20" customHeight="1" s="10">
+      <c r="A35" s="3" t="n">
         <v>48700</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="3">
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t>"22:05"</t>
+        </is>
+      </c>
+      <c r="C35" s="4" t="inlineStr">
+        <is>
+          <t>yeah, I agree needs to definitely have an oversight but from a state that's completely gerrymandered I would love to see someone come in and redraw the lines</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="20" customHeight="1" s="10">
+      <c r="A36" s="3" t="n">
         <v>48700</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="3">
+      <c r="B36" s="4" t="inlineStr">
+        <is>
+          <t>"22:05"</t>
+        </is>
+      </c>
+      <c r="C36" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Who doesn't have a, you know, money coming from.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="20" customHeight="1" s="10">
+      <c r="A37" s="3" t="n">
         <v>48701</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="3">
+      <c r="B37" s="4" t="inlineStr">
+        <is>
+          <t>"24:25"</t>
+        </is>
+      </c>
+      <c r="C37" s="4" t="inlineStr">
+        <is>
+          <t>I really don't like the idea of making people vote, because I feel like some people specifically choose not to vote, and that's their choice and they should be allowed to not go.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="20" customHeight="1" s="10">
+      <c r="A38" s="3" t="n">
         <v>48700</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" s="5"/>
-    </row>
-    <row r="39" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="3">
+      <c r="B38" s="4" t="inlineStr">
+        <is>
+          <t>"24:38"</t>
+        </is>
+      </c>
+      <c r="C38" s="5" t="n"/>
+    </row>
+    <row r="39" ht="20" customHeight="1" s="10">
+      <c r="A39" s="3" t="n">
         <v>48700</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="3">
+      <c r="B39" s="4" t="inlineStr">
+        <is>
+          <t>"24:38"</t>
+        </is>
+      </c>
+      <c r="C39" s="4" t="inlineStr">
+        <is>
+          <t>I agree with that. I love the idea of making it a national holiday. It shouldn't be so difficult to, to be able to get out and vote. And I sincerely like the idea of allowing 16 year olds to vote in their Local School elections. I think it may train them to pay attention to the issues and feel like they can make a difference in, maybe train them to vote.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="20" customHeight="1" s="10">
+      <c r="A40" s="3" t="n">
         <v>10150</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C40" s="5"/>
-    </row>
-    <row r="41" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="3">
+      <c r="B40" s="4" t="inlineStr">
+        <is>
+          <t>"25:04"</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="n"/>
+    </row>
+    <row r="41" ht="20" customHeight="1" s="10">
+      <c r="A41" s="3" t="n">
         <v>10150</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="3">
+      <c r="B41" s="4" t="inlineStr">
+        <is>
+          <t>"25:04"</t>
+        </is>
+      </c>
+      <c r="C41" s="4" t="inlineStr">
+        <is>
+          <t>Yeah, I like the idea of a national holiday. I do kind of like the idea of the compulsory voting with the option that, you know, when you go to cast your ballot, you can choose. Basically, at that time say, you don't vote for a candidate but it gets you out there and basically forces you to make a decision. Of course, there'd have to be some way to allow folks that can't make it or had well, they're all of the obligations or health issues too.</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" ht="20" customHeight="1" s="10">
+      <c r="A42" s="3" t="n">
         <v>10150</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="3">
+      <c r="B42" s="4" t="inlineStr">
+        <is>
+          <t>"25:04"</t>
+        </is>
+      </c>
+      <c r="C42" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Do that.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" ht="20" customHeight="1" s="10">
+      <c r="A43" s="3" t="n">
         <v>48704</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C43" s="5"/>
-    </row>
-    <row r="44" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="3">
+      <c r="B43" s="4" t="inlineStr">
+        <is>
+          <t>"25:37"</t>
+        </is>
+      </c>
+      <c r="C43" s="5" t="n"/>
+    </row>
+    <row r="44" ht="20" customHeight="1" s="10">
+      <c r="A44" s="3" t="n">
         <v>48704</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="3">
+      <c r="B44" s="4" t="inlineStr">
+        <is>
+          <t>"25:37"</t>
+        </is>
+      </c>
+      <c r="C44" s="4" t="inlineStr">
+        <is>
+          <t>Yeah, I kind of agree that I do like having everyone vote, just because I have some friends. I know that in Brazil, they do that. And it it makes them feel very patriotic towards their country like because they are required to but they are then it's going to make a difference because the country is doing everyone as an equal that their vote matters and I know people that travel all over so they can get to the embassies to vote and</t>
+        </is>
+      </c>
+    </row>
+    <row r="45" ht="20" customHeight="1" s="10">
+      <c r="A45" s="3" t="n">
         <v>48704</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="3">
+      <c r="B45" s="4" t="inlineStr">
+        <is>
+          <t>"25:37"</t>
+        </is>
+      </c>
+      <c r="C45" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> And I think it is nice to respect the country, you live in and to want your voice to be heard.</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" ht="20" customHeight="1" s="10">
+      <c r="A46" s="3" t="n">
         <v>48700</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="3">
+      <c r="B46" s="4" t="inlineStr">
+        <is>
+          <t>"26:20"</t>
+        </is>
+      </c>
+      <c r="C46" s="4" t="inlineStr">
+        <is>
+          <t>You know, they could influence people to actually pay attention to what's going on. Instead of just picking a team and constantly voting for that team, but to actually pay attention to the details of what they're voting for.</t>
+        </is>
+      </c>
+    </row>
+    <row r="47" ht="20" customHeight="1" s="10">
+      <c r="A47" s="3" t="n">
         <v>48704</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="3">
+      <c r="B47" s="4" t="inlineStr">
+        <is>
+          <t>"26:37"</t>
+        </is>
+      </c>
+      <c r="C47" s="4" t="inlineStr">
+        <is>
+          <t>I also think it should definitely be a national holiday because everyone brought up a good point if you're working and you have really long job hours and you can't make it in. How can you be expected to vote? People aren't going to lose their paycheck so that they can go vote. So it should be a paid holiday.</t>
+        </is>
+      </c>
+    </row>
+    <row r="48" ht="20" customHeight="1" s="10">
+      <c r="A48" s="3" t="n">
         <v>48700</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="3">
+      <c r="B48" s="4" t="inlineStr">
+        <is>
+          <t>"32:45"</t>
+        </is>
+      </c>
+      <c r="C48" s="4" t="inlineStr">
+        <is>
+          <t>I think this is a good question. It's simple and absolutely to the point</t>
+        </is>
+      </c>
+    </row>
+    <row r="49" ht="20" customHeight="1" s="10">
+      <c r="A49" s="3" t="n">
         <v>48701</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="3">
+      <c r="B49" s="4" t="inlineStr">
+        <is>
+          <t>"32:53"</t>
+        </is>
+      </c>
+      <c r="C49" s="4" t="inlineStr">
+        <is>
+          <t>Yeah, I would agree. I'm kinda curious how it has worked out in other countries because like what you guys are saying if making it compulsory made, people pay more attention than I would be all for it. I was kind of against it because I think people don't pinch engine and then they're just kind of blindly loading and then I don't like it.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50" ht="20" customHeight="1" s="10">
+      <c r="A50" s="3" t="n">
         <v>48700</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>72</v>
+      <c r="B50" s="4" t="inlineStr">
+        <is>
+          <t>"33:15"</t>
+        </is>
+      </c>
+      <c r="C50" s="4" t="inlineStr">
+        <is>
+          <t>It makes perfect sense. Alana</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12 &amp;K000000&amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7545BD15-9397-F44C-9F43-2CF225F934D4}">
-  <dimension ref="A1:A14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A11" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A12" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A13" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A14" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>